--- a/resources/xls-import/value-assistance.xlsx
+++ b/resources/xls-import/value-assistance.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="va_copyediting_category" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="va_production_schedule_task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="va_production_category" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="va_copyediting_category" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="va_production_schedule_task" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
   <si>
     <t xml:space="preserve">SortKey</t>
   </si>
@@ -33,6 +34,330 @@
   </si>
   <si>
     <t xml:space="preserve">Obsolete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Pawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Bishop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E King</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F Rook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G Emperor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XN1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL - Booktype 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL - Booktype 2+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL - Booktype 4+5</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -373,9 +698,1523 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="2" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -406,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="b">
         <f aca="false">FALSE()</f>
@@ -421,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="b">
         <f aca="false">FALSE()</f>
@@ -436,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="b">
         <f aca="false">FALSE()</f>
@@ -451,10 +2290,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="b">
         <f aca="false">TRUE()</f>
@@ -472,14 +2311,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -505,10 +2344,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,20 +2355,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,20 +2376,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,20 +2397,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,20 +2418,20 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,20 +2439,20 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,20 +2460,20 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,20 +2481,20 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,20 +2502,20 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,20 +2523,20 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,20 +2544,20 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,20 +2565,20 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,20 +2586,20 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/resources/xls-import/value-assistance.xlsx
+++ b/resources/xls-import/value-assistance.xlsx
@@ -8,8 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="va_copyediting_category" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="va_production_schedule_task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="va_production_schedule_task" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t xml:space="preserve">SortKey</t>
   </si>
@@ -33,30 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Obsolete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Editing (CE 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formal Mark-up (CE 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Editing (CE 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language Editing (CE 3)</t>
   </si>
   <si>
     <t xml:space="preserve">stage</t>
@@ -373,113 +348,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.38"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -505,10 +376,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,20 +387,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,20 +408,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,20 +429,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,20 +450,20 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,20 +471,20 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,20 +492,20 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,20 +513,20 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,20 +534,20 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,20 +555,20 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,20 +576,20 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,20 +597,20 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,20 +618,20 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
